--- a/src/files/TraitImport_v03/test_traits_MissingNames.xlsx
+++ b/src/files/TraitImport_v03/test_traits_MissingNames.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daw279\Documents\Testing\Cucumber\BI_Cucumber\BI_Gherkin_Scenarios_v02\Trait Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daw279\taf\src\files\TraitImport_v03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7053"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>Trait status</t>
   </si>
   <si>
-    <t>Trait lists</t>
-  </si>
-  <si>
     <t>Method description</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>scale name1</t>
+  </si>
+  <si>
+    <t>Tags</t>
   </si>
 </sst>
 </file>
@@ -451,33 +451,33 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.05859375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.41015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.52734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.17578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.41015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.64453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.05078125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.62890625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.8203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.17578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5859375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.87890625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.52734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.234375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.3515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.64453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.52734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.15625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.89453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5234375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.20703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.3671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.62890625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -495,89 +495,89 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
         <v>20</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -587,6 +587,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D74C1D9EC8A1042A5EF45985DF3E9E4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2000d971e1751a7db8d92151125d08a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aa5be1c8-7296-4b7a-853c-c6802fcefdea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a4a1f299a0d30015388c519f6ad441cc" ns3:_="">
     <xsd:import namespace="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
@@ -764,22 +779,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7613A94-47D1-485D-A76D-D3A6CFAB63B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EFE1791-BEC8-419B-A7D8-F7EAC9E3F094}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340A8394-9E0A-435F-BF61-25A36768AA02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -795,28 +819,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EFE1791-BEC8-419B-A7D8-F7EAC9E3F094}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7613A94-47D1-485D-A76D-D3A6CFAB63B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/files/TraitImport_v03/test_traits_MissingNames.xlsx
+++ b/src/files/TraitImport_v03/test_traits_MissingNames.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daw279\Documents\Testing\Cucumber\BI_Cucumber\BI_Gherkin_Scenarios_v02\Trait Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daw279\Documents\Testing\Cucumber\BI_Cucumber\TraitImportFiles\v0.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7053"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Trait abbreviations</t>
   </si>
@@ -32,15 +32,9 @@
     <t>Trait synonyms</t>
   </si>
   <si>
-    <t>Trait level</t>
-  </si>
-  <si>
     <t>Trait status</t>
   </si>
   <si>
-    <t>Trait lists</t>
-  </si>
-  <si>
     <t>Method description</t>
   </si>
   <si>
@@ -77,15 +71,9 @@
     <t>Ordinal</t>
   </si>
   <si>
-    <t>Trait name</t>
-  </si>
-  <si>
     <t>Trait description</t>
   </si>
   <si>
-    <t>Method name</t>
-  </si>
-  <si>
     <t>method description</t>
   </si>
   <si>
@@ -95,9 +83,6 @@
     <t>Test trait description</t>
   </si>
   <si>
-    <t>method name2</t>
-  </si>
-  <si>
     <t>Test Trait name1</t>
   </si>
   <si>
@@ -105,22 +90,29 @@
   </si>
   <si>
     <t>scale name1</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Ontology term name</t>
+  </si>
+  <si>
+    <t>Trait entity</t>
+  </si>
+  <si>
+    <t>Trait attribute</t>
+  </si>
+  <si>
+    <t>attr1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,12 +132,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="34"/>
+        <bgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="34"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,14 +164,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,33 +454,32 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.05859375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.41015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.52734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.17578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.41015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.64453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.05078125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.62890625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.8203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.17578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5859375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.87890625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.52734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.234375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.3515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.64453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.52734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.15625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.89453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.20703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.3671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.62890625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="43.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -485,99 +487,102 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>21</v>
+      <c r="P3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -587,6 +592,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D74C1D9EC8A1042A5EF45985DF3E9E4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2000d971e1751a7db8d92151125d08a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aa5be1c8-7296-4b7a-853c-c6802fcefdea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a4a1f299a0d30015388c519f6ad441cc" ns3:_="">
     <xsd:import namespace="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
@@ -764,22 +784,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EFE1791-BEC8-419B-A7D8-F7EAC9E3F094}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7613A94-47D1-485D-A76D-D3A6CFAB63B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340A8394-9E0A-435F-BF61-25A36768AA02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -795,28 +824,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EFE1791-BEC8-419B-A7D8-F7EAC9E3F094}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7613A94-47D1-485D-A76D-D3A6CFAB63B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>